--- a/base1.xlsx
+++ b/base1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\11\Sandro\Lavarropas wifi\Como Hacer App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B14E2FB-E4B0-4945-8995-314FE91A6A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13740249-E144-4725-B04A-53BFADC93B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D2FD60-5EF8-4D26-8876-8A275CECFA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>activo</t>
   </si>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E55F5-40DC-4A8B-BC9A-CEF02E8A0F6A}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,25 +827,40 @@
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/base1.xlsx
+++ b/base1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13740249-E144-4725-B04A-53BFADC93B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EC4BE-1619-4F3A-AB86-3A1C9149DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D2FD60-5EF8-4D26-8876-8A275CECFA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>activo</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,82 +863,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>

--- a/base1.xlsx
+++ b/base1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1EC4BE-1619-4F3A-AB86-3A1C9149DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55BA77-34EC-4466-A69F-E95A1EF85ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D2FD60-5EF8-4D26-8876-8A275CECFA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>activo</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,25 +907,40 @@
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">

--- a/base1.xlsx
+++ b/base1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55BA77-34EC-4466-A69F-E95A1EF85ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B75C7-632E-42B1-9219-0F5D95429FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D2FD60-5EF8-4D26-8876-8A275CECFA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>activo</t>
   </si>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E55F5-40DC-4A8B-BC9A-CEF02E8A0F6A}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,30 +947,48 @@
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/base1.xlsx
+++ b/base1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0000\Documentos\GitHub\Lavaseca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B75C7-632E-42B1-9219-0F5D95429FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA35A8-BBFA-49FE-AD53-C9127AD25910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D2FD60-5EF8-4D26-8876-8A275CECFA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>activo</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B48"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,82 +991,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
